--- a/websites.xlsx
+++ b/websites.xlsx
@@ -3252,7 +3252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3271,6 +3271,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -3438,13 +3444,13 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -3520,7 +3526,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3546,13 +3552,13 @@
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -24398,9 +24404,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="35.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="41" width="64.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="41" width="79.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
